--- a/Fujiya Instruments/Junk Guitar/Spreadsheets/VHG.xlsx
+++ b/Fujiya Instruments/Junk Guitar/Spreadsheets/VHG.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974F9CC4-1215-4F47-9E16-301CDD786D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4577F9E-35EE-409A-B0AC-5FCFBF189CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1515" windowWidth="22575" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="630" windowWidth="22575" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VHG Poly (Main)" sheetId="1" r:id="rId1"/>
@@ -3797,7 +3797,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -3805,10 +3805,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -5803,7 +5806,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -5811,10 +5814,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -7772,7 +7778,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -7780,10 +7786,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -9621,7 +9630,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -9629,10 +9638,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -15899,7 +15911,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -15907,10 +15919,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -17772,7 +17787,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -17780,10 +17795,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -19837,7 +19855,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -19845,10 +19863,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -21686,7 +21707,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -21694,10 +21715,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -23699,10 +23723,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -25792,7 +25819,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -25800,10 +25827,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -27653,7 +27683,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -27661,10 +27691,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -29490,7 +29523,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -29498,10 +29531,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
